--- a/src/ExcelMapper.Tests/Resources/MultiMap.xlsx
+++ b/src/ExcelMapper.Tests/Resources/MultiMap.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>a</t>
   </si>
@@ -90,6 +90,21 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>4,5,6</t>
+  </si>
+  <si>
+    <t>7,8,9</t>
+  </si>
+  <si>
+    <t>CommaSeparator</t>
   </si>
 </sst>
 </file>
@@ -407,27 +422,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -467,8 +480,11 @@
       <c r="M1" t="s">
         <v>16</v>
       </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -508,8 +524,11 @@
       <c r="M2">
         <v>2</v>
       </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -534,8 +553,11 @@
       <c r="M3">
         <v>4</v>
       </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>2</v>
       </c>
@@ -557,8 +579,11 @@
       <c r="M4">
         <v>6</v>
       </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -594,6 +619,9 @@
       </c>
       <c r="M5">
         <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
